--- a/PyRICE/model/inputdata/RICE_income_shares.xlsx
+++ b/PyRICE/model/inputdata/RICE_income_shares.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maryamalki/Desktop/Hippo-DAI-Lab/PyRICE/model/inputdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FEF961-D71C-454B-A767-9387E18658AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="20700" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -76,8 +82,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +146,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -186,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,9 +232,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,6 +284,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,14 +477,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -457,81 +514,81 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="C2">
-        <v>0.103</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D2">
         <v>0.153</v>
       </c>
       <c r="E2">
-        <v>0.225</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F2">
-        <v>0.467</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.07282139761741041</v>
+        <v>7.2821397617410411E-2</v>
       </c>
       <c r="C3">
         <v>0.1242643045010679</v>
       </c>
       <c r="D3">
-        <v>0.1675646045526218</v>
+        <v>0.16756460455262179</v>
       </c>
       <c r="E3">
-        <v>0.2244170287051341</v>
+        <v>0.22441702870513411</v>
       </c>
       <c r="F3">
-        <v>0.4106717192874424</v>
+        <v>0.41067171928744239</v>
       </c>
       <c r="G3">
-        <v>0.9997390546636766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.99973905466367663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.077</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="C4">
         <v>0.128</v>
       </c>
       <c r="D4">
-        <v>0.166</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="E4">
         <v>0.217</v>
       </c>
       <c r="F4">
-        <v>0.411</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="G4">
         <v>0.999</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C5">
         <v>0.112</v>
@@ -543,18 +600,18 @@
         <v>0.214</v>
       </c>
       <c r="F5">
-        <v>0.4510000000000001</v>
+        <v>0.45100000000000012</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.08490998430150633</v>
+        <v>8.4909984301506328E-2</v>
       </c>
       <c r="C6">
         <v>0.1297874794532535</v>
@@ -563,21 +620,21 @@
         <v>0.168796271726843</v>
       </c>
       <c r="E6">
-        <v>0.2213320875565784</v>
+        <v>0.22133208755657841</v>
       </c>
       <c r="F6">
-        <v>0.3957230647926918</v>
+        <v>0.39572306479269181</v>
       </c>
       <c r="G6">
         <v>1.000548887830873</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="C7">
         <v>0.107</v>
@@ -589,148 +646,148 @@
         <v>0.222</v>
       </c>
       <c r="F7">
-        <v>0.453</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="G7">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.081</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="C8">
-        <v>0.117</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="D8">
         <v>0.152</v>
       </c>
       <c r="E8">
-        <v>0.205</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="F8">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="G8">
-        <v>0.9989999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.99899999999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06930732201565251</v>
+        <v>6.9307322015652512E-2</v>
       </c>
       <c r="C9">
         <v>0.1133776954582042</v>
       </c>
       <c r="D9">
-        <v>0.1565303375792128</v>
+        <v>0.15653033757921281</v>
       </c>
       <c r="E9">
-        <v>0.2199561335189263</v>
+        <v>0.21995613351892629</v>
       </c>
       <c r="F9">
-        <v>0.4407741445587894</v>
+        <v>0.44077414455878938</v>
       </c>
       <c r="G9">
-        <v>0.9999456331307852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.99994563313078522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.06547997331303843</v>
+        <v>6.5479973313038425E-2</v>
       </c>
       <c r="C10">
         <v>0.1063323174701952</v>
       </c>
       <c r="D10">
-        <v>0.1477627919942036</v>
+        <v>0.14776279199420361</v>
       </c>
       <c r="E10">
         <v>0.2106265221273054</v>
       </c>
       <c r="F10">
-        <v>0.4698303765184015</v>
+        <v>0.46983037651840148</v>
       </c>
       <c r="G10">
         <v>1.000031981423144</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.04295349953264475</v>
+        <v>4.2953499532644747E-2</v>
       </c>
       <c r="C11">
-        <v>0.08639458765504583</v>
+        <v>8.6394587655045832E-2</v>
       </c>
       <c r="D11">
-        <v>0.1326101606505886</v>
+        <v>0.13261016065058859</v>
       </c>
       <c r="E11">
-        <v>0.2035647363375664</v>
+        <v>0.20356473633756639</v>
       </c>
       <c r="F11">
-        <v>0.5351810666008928</v>
+        <v>0.53518106660089282</v>
       </c>
       <c r="G11">
         <v>1.000704050776738</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.07256192751617256</v>
+        <v>7.2561927516172561E-2</v>
       </c>
       <c r="C12">
-        <v>0.1263410367067956</v>
+        <v>0.12634103670679561</v>
       </c>
       <c r="D12">
         <v>0.1703877000278482</v>
       </c>
       <c r="E12">
-        <v>0.228678407363211</v>
+        <v>0.22867840736321099</v>
       </c>
       <c r="F12">
-        <v>0.4018177696730889</v>
+        <v>0.40181776967308891</v>
       </c>
       <c r="G12">
-        <v>0.9997868412871163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.99978684128711626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.07521350648405897</v>
+        <v>7.5213506484058973E-2</v>
       </c>
       <c r="C13">
         <v>0.1141095371939026</v>
       </c>
       <c r="D13">
-        <v>0.1544872669390271</v>
+        <v>0.15448726693902709</v>
       </c>
       <c r="E13">
         <v>0.2151261883950368</v>
       </c>
       <c r="F13">
-        <v>0.4409002714987773</v>
+        <v>0.44090027149877731</v>
       </c>
       <c r="G13">
-        <v>0.9998367705108027</v>
+        <v>0.99983677051080266</v>
       </c>
     </row>
   </sheetData>
